--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H2">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I2">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J2">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.3542805</v>
+        <v>43.1625365</v>
       </c>
       <c r="N2">
-        <v>128.708561</v>
+        <v>86.325073</v>
       </c>
       <c r="O2">
-        <v>0.6389470558360469</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P2">
-        <v>0.5413393761575827</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q2">
-        <v>7235.543274953768</v>
+        <v>5959.385872243326</v>
       </c>
       <c r="R2">
-        <v>28942.17309981507</v>
+        <v>23837.5434889733</v>
       </c>
       <c r="S2">
-        <v>0.08945455568827003</v>
+        <v>0.1337011127980332</v>
       </c>
       <c r="T2">
-        <v>0.05602779151374638</v>
+        <v>0.09816001832185396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H3">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I3">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J3">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03297533333333334</v>
+        <v>0.030416</v>
       </c>
       <c r="N3">
-        <v>0.098926</v>
+        <v>0.091248</v>
       </c>
       <c r="O3">
-        <v>0.0003273984571787046</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P3">
-        <v>0.00041607596813832</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q3">
-        <v>3.707514861258667</v>
+        <v>4.199490933304</v>
       </c>
       <c r="R3">
-        <v>22.245089167552</v>
+        <v>25.196945599824</v>
       </c>
       <c r="S3">
-        <v>4.583679234834944E-05</v>
+        <v>9.421719334925965E-05</v>
       </c>
       <c r="T3">
-        <v>4.30632217486207E-05</v>
+        <v>0.0001037578659427549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H4">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I4">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J4">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.044061</v>
+        <v>0.100667</v>
       </c>
       <c r="N4">
-        <v>0.08812200000000001</v>
+        <v>0.201334</v>
       </c>
       <c r="O4">
-        <v>0.0004374634602152387</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P4">
-        <v>0.0003706350854606983</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q4">
-        <v>4.953909355536</v>
+        <v>13.8989398271605</v>
       </c>
       <c r="R4">
-        <v>19.815637422144</v>
+        <v>55.59575930864201</v>
       </c>
       <c r="S4">
-        <v>6.124623175890943E-05</v>
+        <v>0.0003118280576962757</v>
       </c>
       <c r="T4">
-        <v>3.836016039192886E-05</v>
+        <v>0.0002289363731996166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.432976</v>
+        <v>138.0684815</v>
       </c>
       <c r="H5">
-        <v>224.865952</v>
+        <v>276.136963</v>
       </c>
       <c r="I5">
-        <v>0.1400030798658597</v>
+        <v>0.1344919680862191</v>
       </c>
       <c r="J5">
-        <v>0.103498459527239</v>
+        <v>0.09891648944107198</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.25707166666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N5">
-        <v>108.771215</v>
+        <v>0.372683</v>
       </c>
       <c r="O5">
-        <v>0.3599814808690655</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P5">
-        <v>0.4574842668934997</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q5">
-        <v>4076.490468528613</v>
+        <v>17.15192529695484</v>
       </c>
       <c r="R5">
-        <v>24458.94281117168</v>
+        <v>102.911551781729</v>
       </c>
       <c r="S5">
-        <v>0.05039851601634223</v>
+        <v>0.0003848100371403443</v>
       </c>
       <c r="T5">
-        <v>0.04734891688142549</v>
+        <v>0.0004237768800756588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>226.779063</v>
+      </c>
+      <c r="H6">
+        <v>680.337189</v>
+      </c>
+      <c r="I6">
+        <v>0.2209045987343509</v>
+      </c>
+      <c r="J6">
+        <v>0.243707201096751</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>112.432976</v>
-      </c>
-      <c r="H6">
-        <v>224.865952</v>
-      </c>
-      <c r="I6">
-        <v>0.1400030798658597</v>
-      </c>
-      <c r="J6">
-        <v>0.103498459527239</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03088066666666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N6">
-        <v>0.092642</v>
+        <v>86.325073</v>
       </c>
       <c r="O6">
-        <v>0.0003066013774937787</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P6">
-        <v>0.0003896458953184223</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q6">
-        <v>3.472005254197333</v>
+        <v>9788.359584173299</v>
       </c>
       <c r="R6">
-        <v>20.832031525184</v>
+        <v>58730.1575050398</v>
       </c>
       <c r="S6">
-        <v>4.292513714024411E-05</v>
+        <v>0.2196056098610403</v>
       </c>
       <c r="T6">
-        <v>4.032774992656854E-05</v>
+        <v>0.2418434323740955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>680.337189</v>
       </c>
       <c r="I7">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J7">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>64.3542805</v>
+        <v>0.030416</v>
       </c>
       <c r="N7">
-        <v>128.708561</v>
+        <v>0.091248</v>
       </c>
       <c r="O7">
-        <v>0.6389470558360469</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P7">
-        <v>0.5413393761575827</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q7">
-        <v>14594.20343182917</v>
+        <v>6.897711980207999</v>
       </c>
       <c r="R7">
-        <v>87565.22059097503</v>
+        <v>62.079407821872</v>
       </c>
       <c r="S7">
-        <v>0.1804312314926823</v>
+        <v>0.0001547528197174743</v>
       </c>
       <c r="T7">
-        <v>0.1695133916242699</v>
+        <v>0.000255635225669273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>680.337189</v>
       </c>
       <c r="I8">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J8">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.03297533333333334</v>
+        <v>0.100667</v>
       </c>
       <c r="N8">
-        <v>0.098926</v>
+        <v>0.201334</v>
       </c>
       <c r="O8">
-        <v>0.0003273984571787046</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P8">
-        <v>0.00041607596813832</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q8">
-        <v>7.478115195446</v>
+        <v>22.829167935021</v>
       </c>
       <c r="R8">
-        <v>67.30303675901399</v>
+        <v>136.975007610126</v>
       </c>
       <c r="S8">
-        <v>9.245352377477098E-05</v>
+        <v>0.0005121811580253479</v>
       </c>
       <c r="T8">
-        <v>0.0001302887830423535</v>
+        <v>0.0005640459245670855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>680.337189</v>
       </c>
       <c r="I9">
-        <v>0.2823883917214273</v>
+        <v>0.2209045987343509</v>
       </c>
       <c r="J9">
-        <v>0.3131370062667027</v>
+        <v>0.243707201096751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.044061</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N9">
-        <v>0.08812200000000001</v>
+        <v>0.372683</v>
       </c>
       <c r="O9">
-        <v>0.0004374634602152387</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P9">
-        <v>0.0003706350854606983</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q9">
-        <v>9.992112294843</v>
+        <v>28.172233845343</v>
       </c>
       <c r="R9">
-        <v>59.952673769058</v>
+        <v>253.550104608087</v>
       </c>
       <c r="S9">
-        <v>0.0001235346029670719</v>
+        <v>0.0006320548955677654</v>
       </c>
       <c r="T9">
-        <v>0.0001160595610785666</v>
+        <v>0.00104408757241914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>226.779063</v>
+        <v>202.707067</v>
       </c>
       <c r="H10">
-        <v>680.337189</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I10">
-        <v>0.2823883917214273</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J10">
-        <v>0.3131370062667027</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.25707166666667</v>
+        <v>43.1625365</v>
       </c>
       <c r="N10">
-        <v>108.771215</v>
+        <v>86.325073</v>
       </c>
       <c r="O10">
-        <v>0.3599814808690655</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P10">
-        <v>0.4574842668934997</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q10">
-        <v>8222.344739690514</v>
+        <v>8749.351178195444</v>
       </c>
       <c r="R10">
-        <v>74001.10265721464</v>
+        <v>52496.10706917267</v>
       </c>
       <c r="S10">
-        <v>0.1016545914321132</v>
+        <v>0.1962950568839671</v>
       </c>
       <c r="T10">
-        <v>0.1432552537491477</v>
+        <v>0.2161723935236726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>226.779063</v>
+        <v>202.707067</v>
       </c>
       <c r="H11">
-        <v>680.337189</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I11">
-        <v>0.2823883917214273</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J11">
-        <v>0.3131370062667027</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03088066666666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N11">
-        <v>0.092642</v>
+        <v>0.091248</v>
       </c>
       <c r="O11">
-        <v>0.0003066013774937787</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P11">
-        <v>0.0003896458953184223</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q11">
-        <v>7.003088651482</v>
+        <v>6.165538149871999</v>
       </c>
       <c r="R11">
-        <v>63.027797863338</v>
+        <v>55.48984334884799</v>
       </c>
       <c r="S11">
-        <v>8.658066989004239E-05</v>
+        <v>0.0001383262183904031</v>
       </c>
       <c r="T11">
-        <v>0.0001220125491641198</v>
+        <v>0.0002285002245436627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>175.151614</v>
+        <v>202.707067</v>
       </c>
       <c r="H12">
-        <v>525.454842</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I12">
-        <v>0.218101185932108</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J12">
-        <v>0.241849716306223</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>64.3542805</v>
+        <v>0.100667</v>
       </c>
       <c r="N12">
-        <v>128.708561</v>
+        <v>0.201334</v>
       </c>
       <c r="O12">
-        <v>0.6389470558360469</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P12">
-        <v>0.5413393761575827</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q12">
-        <v>11271.75609738373</v>
+        <v>20.405912313689</v>
       </c>
       <c r="R12">
-        <v>67630.53658430236</v>
+        <v>122.435473882134</v>
       </c>
       <c r="S12">
-        <v>0.1393551106256707</v>
+        <v>0.0004578144866749969</v>
       </c>
       <c r="T12">
-        <v>0.1309227745490991</v>
+        <v>0.0005041739458209912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>175.151614</v>
+        <v>202.707067</v>
       </c>
       <c r="H13">
-        <v>525.454842</v>
+        <v>608.1212009999999</v>
       </c>
       <c r="I13">
-        <v>0.218101185932108</v>
+        <v>0.1974561615339781</v>
       </c>
       <c r="J13">
-        <v>0.241849716306223</v>
+        <v>0.2178383281401139</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03297533333333334</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N13">
-        <v>0.098926</v>
+        <v>0.372683</v>
       </c>
       <c r="O13">
-        <v>0.0003273984571787046</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P13">
-        <v>0.00041607596813832</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q13">
-        <v>5.775682855521334</v>
+        <v>25.18182595025366</v>
       </c>
       <c r="R13">
-        <v>51.981145699692</v>
+        <v>226.636433552283</v>
       </c>
       <c r="S13">
-        <v>7.140599178301796E-05</v>
+        <v>0.0005649639449455395</v>
       </c>
       <c r="T13">
-        <v>0.0001006278548560898</v>
+        <v>0.0009332604460766906</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>175.151614</v>
+        <v>150.09272</v>
       </c>
       <c r="H14">
-        <v>525.454842</v>
+        <v>300.18544</v>
       </c>
       <c r="I14">
-        <v>0.218101185932108</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J14">
-        <v>0.241849716306223</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.044061</v>
+        <v>43.1625365</v>
       </c>
       <c r="N14">
-        <v>0.08812200000000001</v>
+        <v>86.325073</v>
       </c>
       <c r="O14">
-        <v>0.0004374634602152387</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P14">
-        <v>0.0003706350854606983</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q14">
-        <v>7.717355264454</v>
+        <v>6478.382505384279</v>
       </c>
       <c r="R14">
-        <v>46.304131586724</v>
+        <v>25913.53002153712</v>
       </c>
       <c r="S14">
-        <v>9.541129947490712E-05</v>
+        <v>0.1453450017619235</v>
       </c>
       <c r="T14">
-        <v>8.963799027180262E-05</v>
+        <v>0.1067086708357613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>175.151614</v>
+        <v>150.09272</v>
       </c>
       <c r="H15">
-        <v>525.454842</v>
+        <v>300.18544</v>
       </c>
       <c r="I15">
-        <v>0.218101185932108</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J15">
-        <v>0.241849716306223</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>36.25707166666667</v>
+        <v>0.030416</v>
       </c>
       <c r="N15">
-        <v>108.771215</v>
+        <v>0.091248</v>
       </c>
       <c r="O15">
-        <v>0.3599814808690655</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P15">
-        <v>0.4574842668934997</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q15">
-        <v>6350.484621330337</v>
+        <v>4.565220171519999</v>
       </c>
       <c r="R15">
-        <v>57154.36159197303</v>
+        <v>27.39132102912</v>
       </c>
       <c r="S15">
-        <v>0.07851238789113964</v>
+        <v>0.0001024224693928881</v>
       </c>
       <c r="T15">
-        <v>0.1106424401627533</v>
+        <v>0.0001127940291046327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>175.151614</v>
+        <v>150.09272</v>
       </c>
       <c r="H16">
-        <v>525.454842</v>
+        <v>300.18544</v>
       </c>
       <c r="I16">
-        <v>0.218101185932108</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J16">
-        <v>0.241849716306223</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.03088066666666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N16">
-        <v>0.092642</v>
+        <v>0.201334</v>
       </c>
       <c r="O16">
-        <v>0.0003066013774937787</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P16">
-        <v>0.0003896458953184223</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q16">
-        <v>5.408798608062667</v>
+        <v>15.10938384424</v>
       </c>
       <c r="R16">
-        <v>48.679187472564</v>
+        <v>60.43753537696</v>
       </c>
       <c r="S16">
-        <v>6.687012403981107E-05</v>
+        <v>0.0003389848345072944</v>
       </c>
       <c r="T16">
-        <v>9.423574924264471E-05</v>
+        <v>0.000248874200593461</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.1418495</v>
+        <v>150.09272</v>
       </c>
       <c r="H17">
-        <v>248.283699</v>
+        <v>300.18544</v>
       </c>
       <c r="I17">
-        <v>0.1545831293324837</v>
+        <v>0.1462047318034262</v>
       </c>
       <c r="J17">
-        <v>0.1142768842666972</v>
+        <v>0.1075310222272689</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>64.3542805</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N17">
-        <v>128.708561</v>
+        <v>0.372683</v>
       </c>
       <c r="O17">
-        <v>0.6389470558360469</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P17">
-        <v>0.5413393761575827</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q17">
-        <v>7989.059404511785</v>
+        <v>18.64566838925333</v>
       </c>
       <c r="R17">
-        <v>31956.23761804714</v>
+        <v>111.87401033552</v>
       </c>
       <c r="S17">
-        <v>0.09877043536891336</v>
+        <v>0.0004183227376024649</v>
       </c>
       <c r="T17">
-        <v>0.06186257723816615</v>
+        <v>0.000460683161809594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>136.4875866666667</v>
+      </c>
+      <c r="H18">
+        <v>409.46276</v>
+      </c>
+      <c r="I18">
+        <v>0.1329520246091675</v>
+      </c>
+      <c r="J18">
+        <v>0.1466758319350829</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>124.1418495</v>
-      </c>
-      <c r="H18">
-        <v>248.283699</v>
-      </c>
-      <c r="I18">
-        <v>0.1545831293324837</v>
-      </c>
-      <c r="J18">
-        <v>0.1142768842666972</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03297533333333334</v>
+        <v>43.1625365</v>
       </c>
       <c r="N18">
-        <v>0.098926</v>
+        <v>86.325073</v>
       </c>
       <c r="O18">
-        <v>0.0003273984571787046</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P18">
-        <v>0.00041607596813832</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q18">
-        <v>4.093618867879001</v>
+        <v>5891.150441296913</v>
       </c>
       <c r="R18">
-        <v>24.561713207274</v>
+        <v>35346.90264778148</v>
       </c>
       <c r="S18">
-        <v>5.061027804931133E-05</v>
+        <v>0.1321702246754363</v>
       </c>
       <c r="T18">
-        <v>4.75478652570968E-05</v>
+        <v>0.1455541177358313</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.1418495</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H19">
-        <v>248.283699</v>
+        <v>409.46276</v>
       </c>
       <c r="I19">
-        <v>0.1545831293324837</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J19">
-        <v>0.1142768842666972</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.044061</v>
+        <v>0.030416</v>
       </c>
       <c r="N19">
-        <v>0.08812200000000001</v>
+        <v>0.091248</v>
       </c>
       <c r="O19">
-        <v>0.0004374634602152387</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P19">
-        <v>0.0003706350854606983</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q19">
-        <v>5.4698140308195</v>
+        <v>4.151406436053333</v>
       </c>
       <c r="R19">
-        <v>21.879256123278</v>
+        <v>37.36265792448</v>
       </c>
       <c r="S19">
-        <v>6.76244706486881E-05</v>
+        <v>9.313839917003188E-05</v>
       </c>
       <c r="T19">
-        <v>4.235502276636966E-05</v>
+        <v>0.0001538547454823366</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>124.1418495</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H20">
-        <v>248.283699</v>
+        <v>409.46276</v>
       </c>
       <c r="I20">
-        <v>0.1545831293324837</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J20">
-        <v>0.1142768842666972</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>36.25707166666667</v>
+        <v>0.100667</v>
       </c>
       <c r="N20">
-        <v>108.771215</v>
+        <v>0.201334</v>
       </c>
       <c r="O20">
-        <v>0.3599814808690655</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P20">
-        <v>0.4574842668934997</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q20">
-        <v>4501.019934154048</v>
+        <v>13.73979588697333</v>
       </c>
       <c r="R20">
-        <v>27006.11960492429</v>
+        <v>82.43877532184001</v>
       </c>
       <c r="S20">
-        <v>0.05564706381448177</v>
+        <v>0.0003082576022241452</v>
       </c>
       <c r="T20">
-        <v>0.0522798766216233</v>
+        <v>0.0003394725509264946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>124.1418495</v>
+        <v>136.4875866666667</v>
       </c>
       <c r="H21">
-        <v>248.283699</v>
+        <v>409.46276</v>
       </c>
       <c r="I21">
-        <v>0.1545831293324837</v>
+        <v>0.1329520246091675</v>
       </c>
       <c r="J21">
-        <v>0.1142768842666972</v>
+        <v>0.1466758319350829</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03088066666666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N21">
-        <v>0.092642</v>
+        <v>0.372683</v>
       </c>
       <c r="O21">
-        <v>0.0003066013774937787</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P21">
-        <v>0.0003896458953184223</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q21">
-        <v>3.833583073793</v>
+        <v>16.95553442056444</v>
       </c>
       <c r="R21">
-        <v>23.001498442758</v>
+        <v>152.59980978508</v>
       </c>
       <c r="S21">
-        <v>4.739540039063846E-05</v>
+        <v>0.0003804039323369827</v>
       </c>
       <c r="T21">
-        <v>4.452751888429697E-05</v>
+        <v>0.0006283869028427327</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.22342166666665</v>
+        <v>172.4578476666667</v>
       </c>
       <c r="H22">
-        <v>252.670265</v>
+        <v>517.373543</v>
       </c>
       <c r="I22">
-        <v>0.1048761568863419</v>
+        <v>0.1679905152328583</v>
       </c>
       <c r="J22">
-        <v>0.1162958774471969</v>
+        <v>0.1853311271597113</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.3542805</v>
+        <v>43.1625365</v>
       </c>
       <c r="N22">
-        <v>128.708561</v>
+        <v>86.325073</v>
       </c>
       <c r="O22">
-        <v>0.6389470558360469</v>
+        <v>0.9941196838782305</v>
       </c>
       <c r="P22">
-        <v>0.5413393761575827</v>
+        <v>0.9923524265418995</v>
       </c>
       <c r="Q22">
-        <v>5420.137702606444</v>
+        <v>7443.718144623941</v>
       </c>
       <c r="R22">
-        <v>32520.82621563866</v>
+        <v>44662.30886774365</v>
       </c>
       <c r="S22">
-        <v>0.06701031166992752</v>
+        <v>0.1670026778978301</v>
       </c>
       <c r="T22">
-        <v>0.06295553774696423</v>
+        <v>0.1839137937506848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.22342166666665</v>
+        <v>172.4578476666667</v>
       </c>
       <c r="H23">
-        <v>252.670265</v>
+        <v>517.373543</v>
       </c>
       <c r="I23">
-        <v>0.1048761568863419</v>
+        <v>0.1679905152328583</v>
       </c>
       <c r="J23">
-        <v>0.1162958774471969</v>
+        <v>0.1853311271597113</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,33 +1863,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.03297533333333334</v>
+        <v>0.030416</v>
       </c>
       <c r="N23">
-        <v>0.098926</v>
+        <v>0.091248</v>
       </c>
       <c r="O23">
-        <v>0.0003273984571787046</v>
+        <v>0.0007005414129181277</v>
       </c>
       <c r="P23">
-        <v>0.00041607596813832</v>
+        <v>0.001048944079283839</v>
       </c>
       <c r="Q23">
-        <v>2.777295403932222</v>
+        <v>5.245477894629333</v>
       </c>
       <c r="R23">
-        <v>24.99565863539</v>
+        <v>47.209301051664</v>
       </c>
       <c r="S23">
-        <v>3.433629195942011E-05</v>
+        <v>0.0001176843128980708</v>
       </c>
       <c r="T23">
-        <v>4.838791979933785E-05</v>
+        <v>0.0001944019885411795</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.22342166666665</v>
+        <v>172.4578476666667</v>
       </c>
       <c r="H24">
-        <v>252.670265</v>
+        <v>517.373543</v>
       </c>
       <c r="I24">
-        <v>0.1048761568863419</v>
+        <v>0.1679905152328583</v>
       </c>
       <c r="J24">
-        <v>0.1162958774471969</v>
+        <v>0.1853311271597113</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.5</v>
       </c>
       <c r="M24">
-        <v>0.044061</v>
+        <v>0.100667</v>
       </c>
       <c r="N24">
-        <v>0.08812200000000001</v>
+        <v>0.201334</v>
       </c>
       <c r="O24">
-        <v>0.0004374634602152387</v>
+        <v>0.002318562678005956</v>
       </c>
       <c r="P24">
-        <v>0.0003706350854606983</v>
+        <v>0.002314440944004609</v>
       </c>
       <c r="Q24">
-        <v>3.710968182055</v>
+        <v>17.36081415106034</v>
       </c>
       <c r="R24">
-        <v>22.26580909233</v>
+        <v>104.164884906362</v>
       </c>
       <c r="S24">
-        <v>4.587948648557536E-05</v>
+        <v>0.0003894965388778963</v>
       </c>
       <c r="T24">
-        <v>4.310333247636871E-05</v>
+        <v>0.0004289379488969605</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.22342166666665</v>
+        <v>172.4578476666667</v>
       </c>
       <c r="H25">
-        <v>252.670265</v>
+        <v>517.373543</v>
       </c>
       <c r="I25">
-        <v>0.1048761568863419</v>
+        <v>0.1679905152328583</v>
       </c>
       <c r="J25">
-        <v>0.1162958774471969</v>
+        <v>0.1853311271597113</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.25707166666667</v>
+        <v>0.1242276666666667</v>
       </c>
       <c r="N25">
-        <v>108.771215</v>
+        <v>0.372683</v>
       </c>
       <c r="O25">
-        <v>0.3599814808690655</v>
+        <v>0.002861212030845241</v>
       </c>
       <c r="P25">
-        <v>0.4574842668934997</v>
+        <v>0.004284188434812151</v>
       </c>
       <c r="Q25">
-        <v>3053.694635380219</v>
+        <v>21.42403601398545</v>
       </c>
       <c r="R25">
-        <v>27483.25171842197</v>
+        <v>192.816324125869</v>
       </c>
       <c r="S25">
-        <v>0.0377534742638018</v>
+        <v>0.0004806564832521449</v>
       </c>
       <c r="T25">
-        <v>0.05320353423666715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>84.22342166666665</v>
-      </c>
-      <c r="H26">
-        <v>252.670265</v>
-      </c>
-      <c r="I26">
-        <v>0.1048761568863419</v>
-      </c>
-      <c r="J26">
-        <v>0.1162958774471969</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03088066666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.092642</v>
-      </c>
-      <c r="O26">
-        <v>0.0003066013774937787</v>
-      </c>
-      <c r="P26">
-        <v>0.0003896458953184223</v>
-      </c>
-      <c r="Q26">
-        <v>2.600875410014444</v>
-      </c>
-      <c r="R26">
-        <v>23.40787869013</v>
-      </c>
-      <c r="S26">
-        <v>3.215517416760607E-05</v>
-      </c>
-      <c r="T26">
-        <v>4.531421128975454E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>80.34609466666667</v>
-      </c>
-      <c r="H27">
-        <v>241.038284</v>
-      </c>
-      <c r="I27">
-        <v>0.1000480562617791</v>
-      </c>
-      <c r="J27">
-        <v>0.1109420561859411</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>64.3542805</v>
-      </c>
-      <c r="N27">
-        <v>128.708561</v>
-      </c>
-      <c r="O27">
-        <v>0.6389470558360469</v>
-      </c>
-      <c r="P27">
-        <v>0.5413393761575827</v>
-      </c>
-      <c r="Q27">
-        <v>5170.615113258221</v>
-      </c>
-      <c r="R27">
-        <v>31023.69067954933</v>
-      </c>
-      <c r="S27">
-        <v>0.06392541099058296</v>
-      </c>
-      <c r="T27">
-        <v>0.06005730348533686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>80.34609466666667</v>
-      </c>
-      <c r="H28">
-        <v>241.038284</v>
-      </c>
-      <c r="I28">
-        <v>0.1000480562617791</v>
-      </c>
-      <c r="J28">
-        <v>0.1109420561859411</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.03297533333333334</v>
-      </c>
-      <c r="N28">
-        <v>0.098926</v>
-      </c>
-      <c r="O28">
-        <v>0.0003273984571787046</v>
-      </c>
-      <c r="P28">
-        <v>0.00041607596813832</v>
-      </c>
-      <c r="Q28">
-        <v>2.649439253664889</v>
-      </c>
-      <c r="R28">
-        <v>23.844953282984</v>
-      </c>
-      <c r="S28">
-        <v>3.275557926383472E-05</v>
-      </c>
-      <c r="T28">
-        <v>4.616032343482135E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>80.34609466666667</v>
-      </c>
-      <c r="H29">
-        <v>241.038284</v>
-      </c>
-      <c r="I29">
-        <v>0.1000480562617791</v>
-      </c>
-      <c r="J29">
-        <v>0.1109420561859411</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.044061</v>
-      </c>
-      <c r="N29">
-        <v>0.08812200000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.0004374634602152387</v>
-      </c>
-      <c r="P29">
-        <v>0.0003706350854606983</v>
-      </c>
-      <c r="Q29">
-        <v>3.540129277108</v>
-      </c>
-      <c r="R29">
-        <v>21.240775662648</v>
-      </c>
-      <c r="S29">
-        <v>4.376736888008678E-05</v>
-      </c>
-      <c r="T29">
-        <v>4.111901847566189E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>80.34609466666667</v>
-      </c>
-      <c r="H30">
-        <v>241.038284</v>
-      </c>
-      <c r="I30">
-        <v>0.1000480562617791</v>
-      </c>
-      <c r="J30">
-        <v>0.1109420561859411</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>36.25707166666667</v>
-      </c>
-      <c r="N30">
-        <v>108.771215</v>
-      </c>
-      <c r="O30">
-        <v>0.3599814808690655</v>
-      </c>
-      <c r="P30">
-        <v>0.4574842668934997</v>
-      </c>
-      <c r="Q30">
-        <v>2913.114112466118</v>
-      </c>
-      <c r="R30">
-        <v>26218.02701219506</v>
-      </c>
-      <c r="S30">
-        <v>0.03601544745118683</v>
-      </c>
-      <c r="T30">
-        <v>0.05075424524188274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>80.34609466666667</v>
-      </c>
-      <c r="H31">
-        <v>241.038284</v>
-      </c>
-      <c r="I31">
-        <v>0.1000480562617791</v>
-      </c>
-      <c r="J31">
-        <v>0.1109420561859411</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.03088066666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.092642</v>
-      </c>
-      <c r="O31">
-        <v>0.0003066013774937787</v>
-      </c>
-      <c r="P31">
-        <v>0.0003896458953184223</v>
-      </c>
-      <c r="Q31">
-        <v>2.481140967369778</v>
-      </c>
-      <c r="R31">
-        <v>22.330268706328</v>
-      </c>
-      <c r="S31">
-        <v>3.067487186543655E-05</v>
-      </c>
-      <c r="T31">
-        <v>4.322811681103774E-05</v>
+        <v>0.0007939934715883353</v>
       </c>
     </row>
   </sheetData>
